--- a/price_data/members.xlsx
+++ b/price_data/members.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="126">
   <si>
     <t>2018/1</t>
   </si>
@@ -322,6 +323,87 @@
   </si>
   <si>
     <t>2025/10</t>
+  </si>
+  <si>
+    <t>k:kugler-adriana</t>
+  </si>
+  <si>
+    <t>m:musalem-alberto-g</t>
+  </si>
+  <si>
+    <t>w:waller-christopher-j</t>
+  </si>
+  <si>
+    <t>r:rosengren-eric-s</t>
+  </si>
+  <si>
+    <t>g:george-esther-l</t>
+  </si>
+  <si>
+    <t>b:bullard-james-b</t>
+  </si>
+  <si>
+    <t>y:yellen-janet-l</t>
+  </si>
+  <si>
+    <t>s:schmid-jeffrey</t>
+  </si>
+  <si>
+    <t>p:powell-jerome-h</t>
+  </si>
+  <si>
+    <t>w:williams-john-c</t>
+  </si>
+  <si>
+    <t>b:brainard-lael</t>
+  </si>
+  <si>
+    <t>m:mester-loretta-j</t>
+  </si>
+  <si>
+    <t>l:logan-lorie</t>
+  </si>
+  <si>
+    <t>d:daly-mary-c</t>
+  </si>
+  <si>
+    <t>b:barr-michael-s</t>
+  </si>
+  <si>
+    <t>b:bowman-michelle-w</t>
+  </si>
+  <si>
+    <t>k:kashkari-neel</t>
+  </si>
+  <si>
+    <t>h:harker-patrick-t</t>
+  </si>
+  <si>
+    <t>j:jefferson-philip-n</t>
+  </si>
+  <si>
+    <t>q:quarles-randal-k</t>
+  </si>
+  <si>
+    <t>b:bostic-raphael-w</t>
+  </si>
+  <si>
+    <t>c:clarida-richard-h</t>
+  </si>
+  <si>
+    <t>k:kaplan-robert-s</t>
+  </si>
+  <si>
+    <t>m:miran-stephen-i</t>
+  </si>
+  <si>
+    <t>c:collins-susan-m</t>
+  </si>
+  <si>
+    <t>d:dudley-william</t>
+  </si>
+  <si>
+    <t>e:evans-charles-l</t>
   </si>
 </sst>
 </file>
@@ -667,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+    <sheetView topLeftCell="AH1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
@@ -3078,4 +3160,256 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>